--- a/biology/Médecine/1828_en_santé_et_médecine/1828_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1828_en_santé_et_médecine/1828_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1828_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1828_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1828 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1828_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1828_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19 février : aux États-Unis, fondation de la Boston Society for Medical Improvement[1].
-17 avril : à Londres, fondation du Royal Free Hospital par William Marsden[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19 février : aux États-Unis, fondation de la Boston Society for Medical Improvement.
+17 avril : à Londres, fondation du Royal Free Hospital par William Marsden.
 23 septembre : le peintre anglais Richard Parkes Bonington meurt de la tuberculose à vingt-cinq ans.
 24 décembre : à Édimbourg, pendaison de William Burke, trafiquant de cadavres en faveur du docteur Robert Knox.
 Date inconnue
-Poiseuille montre le premier comment mesurer la pression artérielle à l'aide d'un manomètre à mercure[3].</t>
+Poiseuille montre le premier comment mesurer la pression artérielle à l'aide d'un manomètre à mercure.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1828_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1828_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Karl Ernst von Baer (1792-1876) publie Über Entwicklungsgeschichte der Tiere qui marque la fondation de l’embryologie comparée.</t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1828_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1828_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Civiale obtient le prix Montyon.</t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1828_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1828_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>4 janvier : Eugène Koeberlé (mort en  1915), chirurgien français, puis allemand.
 6 janvier : Émile Boudier (mort en  1920), pharmacien et mycologue français.
@@ -615,7 +635,7 @@
 29 avril : Stéphane Tarnier (mort en 1897), obstétricien français.
 3 juin : Victor Marcé (mort en 1864), aliéniste français.
 12 novembre : Gustave de Closmadeuc (mort en 1918), chirurgien et archéologue français.
-15 novembre : Pierre Cyprien Oré (mort en 1889), chirurgien, professeur de physiologie à l'école de médecine de Bordeaux[4], auteur en 1868 d'Études historiques et physiologiques sur la transfusion du sang[5].
+15 novembre : Pierre Cyprien Oré (mort en 1889), chirurgien, professeur de physiologie à l'école de médecine de Bordeaux, auteur en 1868 d'Études historiques et physiologiques sur la transfusion du sang.
 18 novembre : John Langdon-Down (mort en 1896), médecin britannique.
 23 décembre : Jean-Baptiste Gélineau (mort en 1906), neurologue français.
 Date non connue
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1828_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1828_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>22 août : Franz Joseph Gall (né en 1758), médecin allemand.
 26 octobre : Albert Thaer (né en 1752), médecin allemand, un des fondateurs de l'agronomie.
